--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.329263333333333</v>
+        <v>0.7372783333333334</v>
       </c>
       <c r="N2">
-        <v>3.98779</v>
+        <v>2.211835</v>
       </c>
       <c r="O2">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="P2">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="Q2">
-        <v>5.52133230696111</v>
+        <v>2.816716576625</v>
       </c>
       <c r="R2">
-        <v>49.69199076264999</v>
+        <v>25.350449189625</v>
       </c>
       <c r="S2">
-        <v>5.465361083686962E-05</v>
+        <v>3.800750616666667E-05</v>
       </c>
       <c r="T2">
-        <v>5.465361083686962E-05</v>
+        <v>3.800750616666668E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,25 +623,25 @@
         <v>0.214092</v>
       </c>
       <c r="N3">
-        <v>0.6422760000000001</v>
+        <v>0.642276</v>
       </c>
       <c r="O3">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="P3">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="Q3">
-        <v>0.88926930174</v>
+        <v>0.8179224290999999</v>
       </c>
       <c r="R3">
-        <v>8.00342371566</v>
+        <v>7.361301861899999</v>
       </c>
       <c r="S3">
-        <v>8.802545408324229E-06</v>
+        <v>1.103667725246323E-05</v>
       </c>
       <c r="T3">
-        <v>8.80254540832423E-06</v>
+        <v>1.103667725246323E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>310.201294</v>
+        <v>186.216853</v>
       </c>
       <c r="N4">
-        <v>930.6038819999999</v>
+        <v>558.6505589999999</v>
       </c>
       <c r="O4">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="P4">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="Q4">
-        <v>1288.476393859763</v>
+        <v>711.427520622525</v>
       </c>
       <c r="R4">
-        <v>11596.28754473787</v>
+        <v>6402.847685602725</v>
       </c>
       <c r="S4">
-        <v>0.01275414763819262</v>
+        <v>0.009599682872458515</v>
       </c>
       <c r="T4">
-        <v>0.01275414763819262</v>
+        <v>0.009599682872458517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.385788</v>
+        <v>0.2762683333333333</v>
       </c>
       <c r="N5">
-        <v>1.157364</v>
+        <v>0.828805</v>
       </c>
       <c r="O5">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644115</v>
       </c>
       <c r="P5">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644116</v>
       </c>
       <c r="Q5">
-        <v>1.60243925686</v>
+        <v>1.055462447375</v>
       </c>
       <c r="R5">
-        <v>14.42195331174</v>
+        <v>9.499162026375</v>
       </c>
       <c r="S5">
-        <v>1.586194901251138E-05</v>
+        <v>1.424193538327415E-05</v>
       </c>
       <c r="T5">
-        <v>1.586194901251139E-05</v>
+        <v>1.424193538327415E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.4131166666667</v>
+        <v>210.153852</v>
       </c>
       <c r="N6">
-        <v>718.2393500000001</v>
+        <v>630.461556</v>
       </c>
       <c r="O6">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="P6">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="Q6">
-        <v>994.4450754141388</v>
+        <v>802.8770300271001</v>
       </c>
       <c r="R6">
-        <v>8950.00567872725</v>
+        <v>7225.8932702439</v>
       </c>
       <c r="S6">
-        <v>0.009843641195405525</v>
+        <v>0.01083366140671265</v>
       </c>
       <c r="T6">
-        <v>0.009843641195405525</v>
+        <v>0.01083366140671265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.329263333333333</v>
+        <v>0.7372783333333334</v>
       </c>
       <c r="N7">
-        <v>3.98779</v>
+        <v>2.211835</v>
       </c>
       <c r="O7">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="P7">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="Q7">
-        <v>186.8799099972422</v>
+        <v>103.6532830787856</v>
       </c>
       <c r="R7">
-        <v>1681.91918997518</v>
+        <v>932.8795477090702</v>
       </c>
       <c r="S7">
-        <v>0.001849854583347837</v>
+        <v>0.001398650765400271</v>
       </c>
       <c r="T7">
-        <v>0.001849854583347837</v>
+        <v>0.001398650765400272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>0.214092</v>
       </c>
       <c r="N8">
-        <v>0.6422760000000001</v>
+        <v>0.642276</v>
       </c>
       <c r="O8">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="P8">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="Q8">
         <v>30.098997458088</v>
@@ -948,10 +948,10 @@
         <v>270.890977122792</v>
       </c>
       <c r="S8">
-        <v>0.0002979387586543713</v>
+        <v>0.0004061423293320815</v>
       </c>
       <c r="T8">
-        <v>0.0002979387586543714</v>
+        <v>0.0004061423293320816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>310.201294</v>
+        <v>186.216853</v>
       </c>
       <c r="N9">
-        <v>930.6038819999999</v>
+        <v>558.6505589999999</v>
       </c>
       <c r="O9">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="P9">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="Q9">
-        <v>43610.91474507037</v>
+        <v>26180.05616790981</v>
       </c>
       <c r="R9">
-        <v>392498.2327056334</v>
+        <v>235620.5055111883</v>
       </c>
       <c r="S9">
-        <v>0.4316881923067638</v>
+        <v>0.3532618988019627</v>
       </c>
       <c r="T9">
-        <v>0.4316881923067639</v>
+        <v>0.3532618988019628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.385788</v>
+        <v>0.2762683333333333</v>
       </c>
       <c r="N10">
-        <v>1.157364</v>
+        <v>0.828805</v>
       </c>
       <c r="O10">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644115</v>
       </c>
       <c r="P10">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644116</v>
       </c>
       <c r="Q10">
-        <v>54.237580252232</v>
+        <v>38.84031100064556</v>
       </c>
       <c r="R10">
-        <v>488.138222270088</v>
+        <v>349.56279900581</v>
       </c>
       <c r="S10">
-        <v>0.000536877593855691</v>
+        <v>0.0005240936813178071</v>
       </c>
       <c r="T10">
-        <v>0.0005368775938556911</v>
+        <v>0.0005240936813178072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>239.4131166666667</v>
+        <v>210.153852</v>
       </c>
       <c r="N11">
-        <v>718.2393500000001</v>
+        <v>630.461556</v>
       </c>
       <c r="O11">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="P11">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="Q11">
-        <v>33658.86997170808</v>
+        <v>29545.33685123873</v>
       </c>
       <c r="R11">
-        <v>302929.8297453728</v>
+        <v>265908.0316611485</v>
       </c>
       <c r="S11">
-        <v>0.3331766099865518</v>
+        <v>0.3986714822104027</v>
       </c>
       <c r="T11">
-        <v>0.3331766099865519</v>
+        <v>0.3986714822104027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.329263333333333</v>
+        <v>0.7372783333333334</v>
       </c>
       <c r="N12">
-        <v>3.98779</v>
+        <v>2.211835</v>
       </c>
       <c r="O12">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="P12">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="Q12">
-        <v>9.468307276311108</v>
+        <v>22.49485592648334</v>
       </c>
       <c r="R12">
-        <v>85.21476548679998</v>
+        <v>202.45370333835</v>
       </c>
       <c r="S12">
-        <v>9.372324511440661E-05</v>
+        <v>0.0003035354648171687</v>
       </c>
       <c r="T12">
-        <v>9.372324511440662E-05</v>
+        <v>0.0003035354648171688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,25 +1243,25 @@
         <v>0.214092</v>
       </c>
       <c r="N13">
-        <v>0.6422760000000001</v>
+        <v>0.642276</v>
       </c>
       <c r="O13">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="P13">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="Q13">
-        <v>1.52497160688</v>
+        <v>6.53209036164</v>
       </c>
       <c r="R13">
-        <v>13.72474446192</v>
+        <v>58.78881325475999</v>
       </c>
       <c r="S13">
-        <v>1.509512561571713E-05</v>
+        <v>8.81410883727366E-05</v>
       </c>
       <c r="T13">
-        <v>1.509512561571714E-05</v>
+        <v>8.81410883727366E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>310.201294</v>
+        <v>186.216853</v>
       </c>
       <c r="N14">
-        <v>930.6038819999999</v>
+        <v>558.6505589999999</v>
       </c>
       <c r="O14">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="P14">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="Q14">
-        <v>2209.555545127493</v>
+        <v>5681.60095032151</v>
       </c>
       <c r="R14">
-        <v>19885.99990614743</v>
+        <v>51134.40855289358</v>
       </c>
       <c r="S14">
-        <v>0.02187156689221456</v>
+        <v>0.07666496691499869</v>
       </c>
       <c r="T14">
-        <v>0.02187156689221457</v>
+        <v>0.07666496691499869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.385788</v>
+        <v>0.2762683333333333</v>
       </c>
       <c r="N15">
-        <v>1.157364</v>
+        <v>0.828805</v>
       </c>
       <c r="O15">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644115</v>
       </c>
       <c r="P15">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644116</v>
       </c>
       <c r="Q15">
-        <v>2.747957636319999</v>
+        <v>8.429131949783335</v>
       </c>
       <c r="R15">
-        <v>24.73161872688</v>
+        <v>75.86218754805</v>
       </c>
       <c r="S15">
-        <v>2.720100854322572E-05</v>
+        <v>0.0001137389140319208</v>
       </c>
       <c r="T15">
-        <v>2.720100854322573E-05</v>
+        <v>0.0001137389140319208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.4131166666667</v>
+        <v>210.153852</v>
       </c>
       <c r="N16">
-        <v>718.2393500000001</v>
+        <v>630.461556</v>
       </c>
       <c r="O16">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="P16">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="Q16">
-        <v>1705.333245666889</v>
+        <v>6411.93482760084</v>
       </c>
       <c r="R16">
-        <v>15347.999211002</v>
+        <v>57707.41344840755</v>
       </c>
       <c r="S16">
-        <v>0.01688045826155893</v>
+        <v>0.08651976365769393</v>
       </c>
       <c r="T16">
-        <v>0.01688045826155893</v>
+        <v>0.08651976365769393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.329263333333333</v>
+        <v>0.7372783333333334</v>
       </c>
       <c r="N17">
-        <v>3.98779</v>
+        <v>2.211835</v>
       </c>
       <c r="O17">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="P17">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="Q17">
-        <v>0.5144257961755556</v>
+        <v>0.190817217285</v>
       </c>
       <c r="R17">
-        <v>4.62983216558</v>
+        <v>1.717354955565</v>
       </c>
       <c r="S17">
-        <v>5.092109242035458E-06</v>
+        <v>2.574801676125955E-06</v>
       </c>
       <c r="T17">
-        <v>5.092109242035459E-06</v>
+        <v>2.574801676125955E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,25 +1553,25 @@
         <v>0.214092</v>
       </c>
       <c r="N18">
-        <v>0.6422760000000001</v>
+        <v>0.642276</v>
       </c>
       <c r="O18">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="P18">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="Q18">
-        <v>0.08285374672800003</v>
+        <v>0.05540979279599999</v>
       </c>
       <c r="R18">
-        <v>0.7456837205520002</v>
+        <v>0.498688135164</v>
       </c>
       <c r="S18">
-        <v>8.201383612320523E-07</v>
+        <v>7.476748135984257E-07</v>
       </c>
       <c r="T18">
-        <v>8.201383612320525E-07</v>
+        <v>7.476748135984256E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>310.201294</v>
+        <v>186.216853</v>
       </c>
       <c r="N19">
-        <v>930.6038819999999</v>
+        <v>558.6505589999999</v>
       </c>
       <c r="O19">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="P19">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="Q19">
-        <v>120.0481075788627</v>
+        <v>48.195342375489</v>
       </c>
       <c r="R19">
-        <v>1080.432968209764</v>
+        <v>433.7580813794009</v>
       </c>
       <c r="S19">
-        <v>0.001188311477837668</v>
+        <v>0.0006503262656038545</v>
       </c>
       <c r="T19">
-        <v>0.001188311477837668</v>
+        <v>0.0006503262656038545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.385788</v>
+        <v>0.2762683333333333</v>
       </c>
       <c r="N20">
-        <v>1.157364</v>
+        <v>0.828805</v>
       </c>
       <c r="O20">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644115</v>
       </c>
       <c r="P20">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644116</v>
       </c>
       <c r="Q20">
-        <v>0.149300213192</v>
+        <v>0.07150183615500001</v>
       </c>
       <c r="R20">
-        <v>1.343701918728</v>
+        <v>0.643516525395</v>
       </c>
       <c r="S20">
-        <v>1.477867169735399E-06</v>
+        <v>9.648136064315701E-07</v>
       </c>
       <c r="T20">
-        <v>1.477867169735399E-06</v>
+        <v>9.648136064315701E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>239.4131166666667</v>
+        <v>210.153852</v>
       </c>
       <c r="N21">
-        <v>718.2393500000001</v>
+        <v>630.461556</v>
       </c>
       <c r="O21">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="P21">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="Q21">
-        <v>92.65303575874447</v>
+        <v>54.39054889767601</v>
       </c>
       <c r="R21">
-        <v>833.8773218287001</v>
+        <v>489.514940079084</v>
       </c>
       <c r="S21">
-        <v>0.0009171378713845364</v>
+        <v>0.0007339215950203237</v>
       </c>
       <c r="T21">
-        <v>0.0009171378713845365</v>
+        <v>0.0007339215950203236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.329263333333333</v>
+        <v>0.7372783333333334</v>
       </c>
       <c r="N22">
-        <v>3.98779</v>
+        <v>2.211835</v>
       </c>
       <c r="O22">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="P22">
-        <v>0.002410078630586866</v>
+        <v>0.001854329488735102</v>
       </c>
       <c r="Q22">
-        <v>41.09206951070445</v>
+        <v>8.267724214580001</v>
       </c>
       <c r="R22">
-        <v>369.82862559634</v>
+        <v>74.40951793122001</v>
       </c>
       <c r="S22">
-        <v>0.0004067550820457173</v>
+        <v>0.0001115609506748694</v>
       </c>
       <c r="T22">
-        <v>0.0004067550820457175</v>
+        <v>0.0001115609506748694</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,25 +1863,25 @@
         <v>0.214092</v>
       </c>
       <c r="N23">
-        <v>0.6422760000000001</v>
+        <v>0.642276</v>
       </c>
       <c r="O23">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="P23">
-        <v>0.0003881688008994481</v>
+        <v>0.0005384630077319629</v>
       </c>
       <c r="Q23">
-        <v>6.618314915544001</v>
+        <v>2.400794289648</v>
       </c>
       <c r="R23">
-        <v>59.56483423989602</v>
+        <v>21.607148606832</v>
       </c>
       <c r="S23">
-        <v>6.551223285980334E-05</v>
+        <v>3.239523796108319E-05</v>
       </c>
       <c r="T23">
-        <v>6.551223285980337E-05</v>
+        <v>3.239523796108318E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>310.201294</v>
+        <v>186.216853</v>
       </c>
       <c r="N24">
-        <v>930.6038819999999</v>
+        <v>558.6505589999999</v>
       </c>
       <c r="O24">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="P24">
-        <v>0.56242393143806</v>
+        <v>0.4683541970590251</v>
       </c>
       <c r="Q24">
-        <v>9589.381438359442</v>
+        <v>2088.206739712932</v>
       </c>
       <c r="R24">
-        <v>86304.43294523498</v>
+        <v>18793.86065741639</v>
       </c>
       <c r="S24">
-        <v>0.09492171312305137</v>
+        <v>0.0281773222040013</v>
       </c>
       <c r="T24">
-        <v>0.09492171312305139</v>
+        <v>0.0281773222040013</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.385788</v>
+        <v>0.2762683333333333</v>
       </c>
       <c r="N25">
-        <v>1.157364</v>
+        <v>0.828805</v>
       </c>
       <c r="O25">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644115</v>
       </c>
       <c r="P25">
-        <v>0.0006994696922883447</v>
+        <v>0.0006948427671644116</v>
       </c>
       <c r="Q25">
-        <v>11.926024674616</v>
+        <v>3.09802999214</v>
       </c>
       <c r="R25">
-        <v>107.334222071544</v>
+        <v>27.88226992926</v>
       </c>
       <c r="S25">
-        <v>0.0001180512737071811</v>
+        <v>4.180342282497797E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001180512737071811</v>
+        <v>4.180342282497798E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>239.4131166666667</v>
+        <v>210.153852</v>
       </c>
       <c r="N26">
-        <v>718.2393500000001</v>
+        <v>630.461556</v>
       </c>
       <c r="O26">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="P26">
-        <v>0.4340783514381653</v>
+        <v>0.5285581676773434</v>
       </c>
       <c r="Q26">
-        <v>7401.077111764457</v>
+        <v>2356.632512327088</v>
       </c>
       <c r="R26">
-        <v>66609.69400588011</v>
+        <v>21209.69261094379</v>
       </c>
       <c r="S26">
-        <v>0.07326050412326444</v>
+        <v>0.03179933880751386</v>
       </c>
       <c r="T26">
-        <v>0.07326050412326446</v>
+        <v>0.03179933880751386</v>
       </c>
     </row>
   </sheetData>
